--- a/tools/template.xlsx
+++ b/tools/template.xlsx
@@ -15,12 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>产品ID</t>
   </si>
@@ -150,6 +149,22 @@
   <si>
     <t xml:space="preserve">
 https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1522130375324&amp;di=cfdbb469e4654c0aaaa12c7e785278f8&amp;imgtype=0&amp;src=http%3A%2F%2Fimg30.ddimg.cn%2F89%2F21%2F1269169100-1_u_1.jpg,https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1522130375324&amp;di=2e45ef0fbd6f6a0dabf536953eb5df90&amp;imgtype=0&amp;src=http%3A%2F%2Fimage.suning.cn%2Fuimg%2Fsop%2Fcommodity%2F201402250522264681_x.jpg,https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1522130375324&amp;di=0baa9a3c4f62b74c16192968e533cd82&amp;imgtype=0&amp;src=http%3A%2F%2Fs8.sinaimg.cn%2Fmw690%2F52f6091dgx6BOFm7qCPd7%26690</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类类别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护肤品,美容,美甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保健用品,计生用品,情趣用品</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -595,7 +610,7 @@
     <col min="14" max="14" width="106.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -638,8 +653,14 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="172.5" customHeight="1">
+    <row r="2" spans="1:16" ht="172.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -674,8 +695,14 @@
       <c r="N2" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="189">
+    <row r="3" spans="1:16" ht="189">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -717,6 +744,12 @@
       </c>
       <c r="N3" s="8" t="s">
         <v>25</v>
+      </c>
+      <c r="O3" s="8">
+        <v>2</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tools/template.xlsx
+++ b/tools/template.xlsx
@@ -600,13 +600,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
     <col min="14" max="14" width="106.25" customWidth="1"/>
   </cols>
   <sheetData>
